--- a/resources/doc/grid_layout.xlsx
+++ b/resources/doc/grid_layout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">btn_create</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t xml:space="preserve">btn_import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baudrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect/disconnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey,rgb,r,g,b</t>
   </si>
   <si>
     <t xml:space="preserve">resx</t>
@@ -64,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,12 +136,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,105 +275,117 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
